--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54437.2483652613</v>
+        <v>10833012.42468699</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54437.2483652613</v>
+        <v>10833012.42468699</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23546.3762468466</v>
+        <v>2853705.850398834</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23546.3762468466</v>
+        <v>2853705.850398834</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495426082.537577</v>
+        <v>59578196.71545095</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12429.34981633367</v>
+        <v>1360612.360658885</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24012.53832891492</v>
+        <v>2588504.974983164</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35595.72684149615</v>
+        <v>3816397.589307445</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48546.85658774723</v>
+        <v>4897428.115953214</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60483.34075867182</v>
+        <v>6101533.373262917</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72419.82492959641</v>
+        <v>7305638.630572617</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84404.66151184816</v>
+        <v>8542356.39237164</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96345.15061935244</v>
+        <v>9770249.006695915</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109219.7809716641</v>
+        <v>10836056.15394774</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120970.5275864798</v>
+        <v>12063948.76827201</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132721.2742012954</v>
+        <v>13291841.38259629</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144305.7359553826</v>
+        <v>14513335.76500139</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155922.3496286616</v>
+        <v>15741228.37932567</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>168593.4930463505</v>
+        <v>16823036.81013076</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>184755.4417804412</v>
+        <v>17429338.53206852</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>271</v>
@@ -27052,13 +27052,13 @@
         <v>79</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>192</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,7 +27147,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>58</v>
